--- a/docs/packages/CDVM/test_cases/CDVM Test Cases.xlsx
+++ b/docs/packages/CDVM/test_cases/CDVM Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="14100" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="14100" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Category 1 DVM Tests" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="314">
   <si>
     <t>Extra Notes</t>
   </si>
@@ -832,9 +832,6 @@
     <t>ABC-123</t>
   </si>
   <si>
-    <t>Cruise ID/Name</t>
-  </si>
-  <si>
     <t>Cruise DVM - Required Parameters are Blank</t>
   </si>
   <si>
@@ -1136,6 +1133,21 @@
 ORA-06562: type of out argument must match type of column or bind variable
 The parent record was NOT evaluated successfully
 completed test case for ORA-20235</t>
+  </si>
+  <si>
+    <t>Batch Process Cruise Fiscal Year CDVM - Required Parameters are Blank</t>
+  </si>
+  <si>
+    <t>Batch Process Cruise Calendar Year CDVM - Required Parameters are Blank</t>
+  </si>
+  <si>
+    <t>Cruise ID/Name/Year/Fiscal Year</t>
+  </si>
+  <si>
+    <t>Blank Fiscal Year paramter</t>
+  </si>
+  <si>
+    <t>Blank Calendar Year paramter</t>
   </si>
 </sst>
 </file>
@@ -1876,10 +1888,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E16" s="11"/>
     </row>
@@ -2047,10 +2059,10 @@
         <v>46</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E27" s="8"/>
     </row>
@@ -2132,13 +2144,13 @@
         <v>34</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="E33" s="11"/>
     </row>
@@ -2182,10 +2194,10 @@
         <v>52</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E36" s="8"/>
     </row>
@@ -2248,13 +2260,13 @@
         <v>48</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E41" s="11"/>
     </row>
@@ -2276,13 +2288,13 @@
         <v>48</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E43" s="8"/>
     </row>
@@ -2473,13 +2485,13 @@
         <v>36</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E56" s="8"/>
     </row>
@@ -3726,7 +3738,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3775,10 +3787,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3792,7 +3805,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>107</v>
@@ -3812,13 +3825,13 @@
         <v>238</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>242</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>243</v>
       </c>
       <c r="E2" s="2">
         <v>-20501</v>
@@ -3829,13 +3842,13 @@
         <v>-1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E3">
         <v>-20502</v>
@@ -3846,13 +3859,13 @@
         <v>238</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E4" s="2">
         <v>-20501</v>
@@ -3860,16 +3873,16 @@
     </row>
     <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E5">
         <v>-20502</v>
@@ -3877,16 +3890,16 @@
     </row>
     <row r="6" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>252</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>253</v>
       </c>
       <c r="E6">
         <v>-20505</v>
@@ -3897,13 +3910,13 @@
         <v>238</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E7">
         <v>-20507</v>
@@ -3917,10 +3930,10 @@
         <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E8">
         <v>-20508</v>
@@ -3931,13 +3944,13 @@
         <v>238</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E9">
         <v>-20507</v>
@@ -3948,13 +3961,13 @@
         <v>239</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E10">
         <v>-20509</v>
@@ -3965,13 +3978,13 @@
         <v>238</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E11">
         <v>-20510</v>
@@ -3985,10 +3998,10 @@
         <v>237</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E12">
         <v>-20511</v>
@@ -3999,13 +4012,13 @@
         <v>238</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E13">
         <v>-20510</v>
@@ -4016,13 +4029,13 @@
         <v>239</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E14">
         <v>-20512</v>
@@ -4033,13 +4046,13 @@
         <v>238</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E15" s="2">
         <v>-20513</v>
@@ -4050,13 +4063,13 @@
         <v>238</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E16" s="2">
         <v>-20513</v>
@@ -4067,13 +4080,13 @@
         <v>-1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E17" s="2">
         <v>-20515</v>
@@ -4081,16 +4094,16 @@
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E18" s="2">
         <v>-20515</v>
@@ -4101,13 +4114,13 @@
         <v>41</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E19" s="2">
         <v>-20516</v>
@@ -4118,13 +4131,13 @@
         <v>238</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E20" s="2">
         <v>-20517</v>
@@ -4135,13 +4148,13 @@
         <v>238</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E21" s="2">
         <v>-20517</v>
@@ -4152,13 +4165,13 @@
         <v>-1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E22" s="2">
         <v>-20519</v>
@@ -4166,16 +4179,16 @@
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E23" s="2">
         <v>-20519</v>
@@ -4186,13 +4199,13 @@
         <v>238</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E24" s="2">
         <v>-20520</v>
@@ -4203,13 +4216,13 @@
         <v>238</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E25" s="2">
         <v>-20520</v>
@@ -4220,13 +4233,13 @@
         <v>-1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E26" s="2">
         <v>-20522</v>
@@ -4234,19 +4247,43 @@
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E27" s="2">
         <v>-20522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28">
+        <v>-20525</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29">
+        <v>-20527</v>
       </c>
     </row>
   </sheetData>
@@ -4387,10 +4424,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -4511,13 +4548,13 @@
         <v>34</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="E17" s="11"/>
     </row>
@@ -4567,13 +4604,13 @@
         <v>48</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E21" s="11"/>
     </row>
@@ -5181,12 +5218,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" customWidth="1"/>
     <col min="4" max="4" width="60.5703125" customWidth="1"/>
@@ -5194,7 +5233,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="36" t="s">
         <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5475,7 +5514,7 @@
         <v>189</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E18" s="2">
         <v>-20235</v>
@@ -5489,7 +5528,7 @@
         <v>189</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E19" s="2">
         <v>-20235</v>
@@ -5697,10 +5736,10 @@
         <v>46</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -5839,13 +5878,13 @@
         <v>207</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -5992,10 +6031,10 @@
         <v>217</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -6085,16 +6124,16 @@
     </row>
     <row r="37" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -6196,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -6213,7 +6252,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -6221,13 +6260,13 @@
         <v>213</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -6238,10 +6277,10 @@
         <v>223</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -6252,24 +6291,24 @@
         <v>220</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="B48" s="30" t="s">
-        <v>299</v>
-      </c>
       <c r="C48" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -8785,7 +8824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/docs/packages/CDVM/test_cases/CDVM Test Cases.xlsx
+++ b/docs/packages/CDVM/test_cases/CDVM Test Cases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="316">
   <si>
     <t>Extra Notes</t>
   </si>
@@ -1148,6 +1148,18 @@
   </si>
   <si>
     <t>Blank Calendar Year paramter</t>
+  </si>
+  <si>
+    <t>executing test case (V_FISC_YEAR) for ORA-20525
+The cruises for the specified fiscal year were NOT processed successfully
+ORA-20525: The Cruise Fiscal Year parameter was not specified
+completed test case for ORA-20525</t>
+  </si>
+  <si>
+    <t>executing test case (V_CAL_YEAR) for ORA-20527
+The cruises for the specified calendar year were NOT processed successfully
+ORA-20527: The Cruise Calendar Year parameter was not specified
+completed test case for ORA-20527</t>
   </si>
 </sst>
 </file>
@@ -3791,7 +3803,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4262,27 +4274,31 @@
         <v>-20522</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="28" t="s">
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B28" s="29" t="s">
         <v>309</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28">
+      <c r="D28" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E28" s="2">
         <v>-20525</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="28" t="s">
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
         <v>310</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29">
+      <c r="D29" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="E29" s="2">
         <v>-20527</v>
       </c>
     </row>
